--- a/genshin/510829670586301950_2021-04-07_14-00-01.xlsx
+++ b/genshin/510829670586301950_2021-04-07_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-27 13:50:52</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44313.57699074074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -619,10 +633,8 @@
           <t>4417368285</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-15 16:55:00</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44301.70486111111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -694,10 +706,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-15 01:47:06</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44301.074375</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -765,10 +775,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-15 00:21:23</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44301.01484953704</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -832,10 +840,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-14 23:43:37</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44300.98862268519</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -903,10 +909,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:13:02</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44300.9257175926</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -970,10 +974,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:31</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44300.9253587963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1041,10 +1043,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:11:01</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44300.92431712963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1112,10 +1112,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-14 21:55:56</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44300.91384259259</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1179,10 +1177,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-14 21:42:14</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44300.90432870371</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1250,10 +1246,8 @@
           <t>4407105501</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-13 12:16:58</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44299.5117824074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1321,10 +1315,8 @@
           <t>4377997221</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-13 01:14:04</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44299.05143518518</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1396,10 +1388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-12 22:35:07</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44298.94105324074</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1467,10 +1457,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-11 16:42:27</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44297.69614583333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1539,10 +1527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-11 13:04:40</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44297.54490740741</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1618,10 +1604,8 @@
           <t>4395776564</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-11 00:50:08</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44297.03481481481</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1689,10 +1673,8 @@
           <t>4395763801</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-11 00:48:08</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44297.03342592593</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1760,10 +1742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:09:10</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44296.75636574074</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1836,10 +1816,8 @@
           <t>4392920793</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:56:39</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44296.66434027778</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1916,10 +1894,8 @@
           <t>4392920793</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:55:10</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44296.66331018518</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1987,10 +1963,8 @@
           <t>4392849522</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:39:11</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44296.65221064815</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2066,10 +2040,8 @@
           <t>4377997221</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:25:37</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44296.51778935185</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2133,10 +2105,8 @@
           <t>4391522547</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-10 10:51:06</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44296.45215277778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2216,10 +2186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-10 10:36:42</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44296.44215277778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2295,10 +2263,8 @@
           <t>4377997221</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-10 00:37:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44296.02636574074</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2362,10 +2328,8 @@
           <t>4378641280</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-09 20:31:27</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44295.85517361111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2437,10 +2401,8 @@
           <t>4386414458</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-09 14:13:31</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44295.59271990741</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
@@ -2508,10 +2470,8 @@
           <t>4387117441</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-09 13:33:02</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44295.56460648148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2580,10 +2540,8 @@
           <t>4386414458</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-09 13:30:32</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44295.56287037037</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2651,10 +2609,8 @@
           <t>4387100725</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-09 13:29:53</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44295.56241898148</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2722,10 +2678,8 @@
           <t>4387100725</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-09 13:27:55</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44295.56105324074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2789,10 +2743,8 @@
           <t>4386024842</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-09 10:49:32</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44295.45106481481</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2860,10 +2812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-09 09:07:30</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44295.38020833334</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2935,10 +2885,8 @@
           <t>4386050004</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:56:18</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44295.37243055556</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -3006,10 +2954,8 @@
           <t>4386050004</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:53:29</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44295.37047453703</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3073,10 +3019,8 @@
           <t>4386024842</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:52:19</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44295.36966435185</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3144,10 +3088,8 @@
           <t>4386024842</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:47:47</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44295.36651620371</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3219,10 +3161,8 @@
           <t>4385932211</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:06:40</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44295.33796296296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3294,10 +3234,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-09 06:14:06</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44295.25979166666</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3365,10 +3303,8 @@
           <t>4378683425</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-09 06:13:34</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44295.25942129629</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3436,10 +3372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-09 01:58:58</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44295.08261574074</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3511,10 +3445,8 @@
           <t>4378683425</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-09 00:48:40</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44295.03379629629</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3574,10 +3506,8 @@
           <t>4384857716</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-08 22:55:37</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44294.95528935185</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3645,10 +3575,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-08 22:51:02</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44294.95210648148</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3724,10 +3652,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-08 22:45:33</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44294.94829861111</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3799,10 +3725,8 @@
           <t>4384750482</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-08 22:36:11</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44294.94179398148</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3866,10 +3790,8 @@
           <t>4378577489</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-08 21:35:31</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44294.89966435185</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3933,10 +3855,8 @@
           <t>4378577489</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-08 21:30:17</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44294.89603009259</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4004,10 +3924,8 @@
           <t>4383825480</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-08 19:41:08</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44294.82023148148</v>
       </c>
       <c r="I50" t="n">
         <v>4</v>
@@ -4080,10 +3998,8 @@
           <t>4378373331</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-08 18:48:19</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44294.78355324074</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4159,10 +4075,8 @@
           <t>4378373331</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-08 18:44:11</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44294.78068287037</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4238,10 +4152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-08 18:42:46</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44294.77969907408</v>
       </c>
       <c r="I53" t="n">
         <v>55</v>
@@ -4309,10 +4221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-08 18:38:56</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44294.77703703703</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4388,10 +4298,8 @@
           <t>4378373331</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-08 18:36:06</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44294.77506944445</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4467,10 +4375,8 @@
           <t>4382697485</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-08 14:55:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44294.62159722222</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4530,10 +4436,8 @@
           <t>4382622112</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-08 14:29:45</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44294.60399305556</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4609,10 +4513,8 @@
           <t>4382507352</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-08 13:53:30</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44294.57881944445</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4680,10 +4582,8 @@
           <t>4382361233</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-08 13:11:18</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44294.54951388889</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4751,10 +4651,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-08 12:50:16</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44294.5349074074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4830,10 +4728,8 @@
           <t>4382143000</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-08 12:24:37</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44294.51709490741</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4897,10 +4793,8 @@
           <t>4382115604</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-08 12:18:31</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44294.5128587963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4964,10 +4858,8 @@
           <t>4378641280</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-08 12:10:09</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44294.50704861111</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5039,10 +4931,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-08 11:21:01</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44294.47292824074</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5118,10 +5008,8 @@
           <t>4381801719</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:50:59</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44294.45207175926</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5197,10 +5085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:26:11</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44294.43484953704</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5276,10 +5162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:25:42</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44294.43451388889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5355,10 +5239,8 @@
           <t>4377979762</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:13:45</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44294.42621527778</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5427,10 +5309,8 @@
           <t>4377979762</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:13:27</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44294.42600694444</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5499,10 +5379,8 @@
           <t>4378373331</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:12:42</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44294.42548611111</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5571,10 +5449,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:11:08</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44294.42439814815</v>
       </c>
       <c r="I71" t="n">
         <v>4</v>
@@ -5643,10 +5519,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-08 09:53:13</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44294.41195601852</v>
       </c>
       <c r="I72" t="n">
         <v>7</v>
@@ -5712,10 +5586,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-08 09:52:01</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44294.41112268518</v>
       </c>
       <c r="I73" t="n">
         <v>22</v>
@@ -5779,10 +5651,8 @@
           <t>4381550848</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-08 09:22:31</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44294.39063657408</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5858,10 +5728,8 @@
           <t>4381476785</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-08 08:54:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44294.37085648148</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5933,10 +5801,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-08 08:11:28</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44294.3412962963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6012,10 +5878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-08 08:05:25</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44294.33709490741</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6083,10 +5947,8 @@
           <t>4381364726</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-08 08:03:59</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44294.33609953704</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6154,10 +6016,8 @@
           <t>4378056482</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-04-08 08:02:53</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44294.33533564815</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6225,10 +6085,8 @@
           <t>4381365412</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-04-08 08:01:02</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44294.33405092593</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6296,10 +6154,8 @@
           <t>4381357746</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-04-08 07:59:56</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44294.33328703704</v>
       </c>
       <c r="I81" t="n">
         <v>16</v>
@@ -6367,10 +6223,8 @@
           <t>4381218826</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-04-08 06:20:07</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44294.26396990741</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6439,10 +6293,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-04-08 06:03:57</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44294.25274305556</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6506,10 +6358,8 @@
           <t>4380259478</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-04-08 03:21:20</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44294.13981481481</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6581,10 +6431,8 @@
           <t>4381026091</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-04-08 01:58:34</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44294.08233796297</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6656,10 +6504,8 @@
           <t>4379908096</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-04-08 01:46:31</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44294.0739699074</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6735,10 +6581,8 @@
           <t>4380088544</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-04-08 01:45:02</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44294.07293981482</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6814,10 +6658,8 @@
           <t>4380955689</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-04-08 01:20:30</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44294.05590277778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6885,10 +6727,8 @@
           <t>4379694444</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-04-08 01:11:56</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44294.0499537037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6960,10 +6800,8 @@
           <t>4380919391</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-04-08 01:11:16</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44294.04949074074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7035,10 +6873,8 @@
           <t>4378432086</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-04-08 00:06:25</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44294.00445601852</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7110,10 +6946,8 @@
           <t>4378373331</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:48:51</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44293.99225694445</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7189,10 +7023,8 @@
           <t>4380555353</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:38:45</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44293.98524305555</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7260,10 +7092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:35:23</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44293.98290509259</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -7339,10 +7169,8 @@
           <t>4380525005</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:33:08</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44293.98134259259</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7414,10 +7242,8 @@
           <t>4380507202</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:30:07</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44293.97924768519</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7481,10 +7307,8 @@
           <t>4380319479</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:19:55</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44293.97216435185</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7557,10 +7381,8 @@
           <t>4380319479</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:17:48</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44293.97069444445</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7632,10 +7454,8 @@
           <t>4380408147</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:16:56</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44293.97009259259</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7708,10 +7528,8 @@
           <t>4380408535</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:13:57</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44293.96802083333</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7775,10 +7593,8 @@
           <t>4380408147</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:13:45</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44293.96788194445</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7854,10 +7670,8 @@
           <t>4380319479</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:12:59</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44293.96734953704</v>
       </c>
       <c r="I102" t="n">
         <v>2</v>
@@ -7930,10 +7744,8 @@
           <t>4380363149</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:05:59</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44293.96248842592</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8001,10 +7813,8 @@
           <t>4380324678</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:59:18</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44293.95784722222</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8072,10 +7882,8 @@
           <t>4380319479</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:58:57</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44293.95760416667</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8147,10 +7955,8 @@
           <t>4380310974</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:56:01</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44293.95556712963</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8218,10 +8024,8 @@
           <t>4380291846</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:52:35</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44293.95318287037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8289,10 +8093,8 @@
           <t>4378013865</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:50:52</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44293.95199074074</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8364,10 +8166,8 @@
           <t>4380277809</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:50:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44293.95166666667</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8435,10 +8235,8 @@
           <t>4380259478</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:48:42</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44293.95048611111</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8502,10 +8300,8 @@
           <t>4379797987</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:42:19</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44293.94605324074</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8569,10 +8365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:40:31</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44293.94480324074</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8636,10 +8430,8 @@
           <t>4377986535</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:29:31</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44293.93716435185</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8707,10 +8499,8 @@
           <t>4380143877</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:28:05</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44293.93616898148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8778,10 +8568,8 @@
           <t>4380088544</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:19:34</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44293.93025462963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8845,10 +8633,8 @@
           <t>4380072098</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:16:15</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44293.92795138889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8914,10 +8700,8 @@
           <t>4380066327</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-04-07 22:14:00</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44293.92638888889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8985,10 +8769,8 @@
           <t>4378295343</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:53:59</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44293.91248842593</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9056,10 +8838,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:53:07</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44293.91188657407</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9131,10 +8911,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:52:59</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44293.91179398148</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9206,10 +8984,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:52:55</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44293.91174768518</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9277,10 +9053,8 @@
           <t>4379945698</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:52:05</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44293.91116898148</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9348,10 +9122,8 @@
           <t>4379908096</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:47:06</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44293.90770833333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9419,10 +9191,8 @@
           <t>4379822206</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:29:38</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44293.8955787037</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9494,10 +9264,8 @@
           <t>4379825712</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:28:55</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44293.89508101852</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9565,10 +9333,8 @@
           <t>4379797987</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:24:30</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44293.89201388889</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9640,10 +9406,8 @@
           <t>4378213409</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:24:13</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44293.89181712963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9711,10 +9475,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:22:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44293.89037037037</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9778,10 +9540,8 @@
           <t>4379772968</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:20:57</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44293.88954861111</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9849,10 +9609,8 @@
           <t>4378001304</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:18:07</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44293.88758101852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9921,10 +9679,8 @@
           <t>4379035141</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:17:49</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44293.88737268518</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -9993,10 +9749,8 @@
           <t>4379694444</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-04-07 21:05:49</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44293.87903935185</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10064,10 +9818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:48:50</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44293.86724537037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10143,10 +9895,8 @@
           <t>4377964371</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:43:56</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44293.86384259259</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10214,10 +9964,8 @@
           <t>4379574605</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:42:55</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44293.86313657407</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10285,10 +10033,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:40:41</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44293.86158564815</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10360,10 +10106,8 @@
           <t>4379553260</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:39:02</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44293.86043981482</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10435,10 +10179,8 @@
           <t>4379540844</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:35:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44293.85769675926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10510,10 +10252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:30:12</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44293.85430555556</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10577,10 +10317,8 @@
           <t>4379498960</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:28:14</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44293.85293981482</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10656,10 +10394,8 @@
           <t>4379473871</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:23:49</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44293.84987268518</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10727,10 +10463,8 @@
           <t>4377979762</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:18:34</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44293.84622685185</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10806,10 +10540,8 @@
           <t>4379411182</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:10:32</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44293.84064814815</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10881,10 +10613,8 @@
           <t>4379375070</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:03:33</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44293.83579861111</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10952,10 +10682,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:01:05</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44293.83408564814</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11027,10 +10755,8 @@
           <t>4377979762</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:00:15</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44293.83350694444</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11101,10 +10827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:50:22</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44293.82664351852</v>
       </c>
       <c r="I147" t="n">
         <v>293</v>
@@ -11181,10 +10905,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:48:01</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44293.82501157407</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11256,10 +10978,8 @@
           <t>4379285495</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:47:50</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44293.82488425926</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -11327,10 +11047,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:44:57</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44293.82288194444</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11390,10 +11108,8 @@
           <t>4379262546</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:43:33</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44293.82190972222</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11461,10 +11177,8 @@
           <t>4379253601</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:42:55</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44293.82146990741</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11537,10 +11251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:42:13</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44293.82098379629</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11613,10 +11325,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:39:28</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44293.81907407408</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11680,10 +11390,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:39:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44293.81877314814</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11752,10 +11460,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:38:14</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44293.81821759259</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11819,10 +11525,8 @@
           <t>4379196218</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:31:34</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44293.81358796296</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11886,10 +11590,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:29:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44293.81202546296</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11965,10 +11667,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:24:55</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44293.8089699074</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12028,10 +11728,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:23:59</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44293.80832175926</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12099,10 +11797,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:23:58</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44293.80831018519</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12166,10 +11862,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:23:22</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44293.80789351852</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12241,10 +11935,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:23:05</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44293.80769675926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12316,10 +12008,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:22:51</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44293.80753472223</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12391,10 +12081,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:22:36</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44293.80736111111</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12466,10 +12154,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:22:22</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44293.80719907407</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12541,10 +12227,8 @@
           <t>4379146273</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:21:22</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44293.80650462963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12616,10 +12300,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:17:00</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44293.80347222222</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12695,10 +12377,8 @@
           <t>4379116437</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:15:17</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44293.80228009259</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12766,10 +12446,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:10:34</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44293.79900462963</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12845,10 +12523,8 @@
           <t>4378565021</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:02:23</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44293.79332175926</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12916,10 +12592,8 @@
           <t>4379035141</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:58:45</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44293.79079861111</v>
       </c>
       <c r="I172" t="n">
         <v>5</v>
@@ -12987,10 +12661,8 @@
           <t>4379027736</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:58:23</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44293.79054398148</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13058,10 +12730,8 @@
           <t>4379025685</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:57:13</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44293.78973379629</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13129,10 +12799,8 @@
           <t>4379002875</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:53:38</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44293.78724537037</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13196,10 +12864,8 @@
           <t>4379001540</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:52:56</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44293.78675925926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13297,10 +12963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:44:40</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44293.78101851852</v>
       </c>
       <c r="I177" t="n">
         <v>151</v>
@@ -13368,10 +13032,8 @@
           <t>4378943717</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:42:46</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44293.77969907408</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13435,10 +13097,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:38:57</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44293.77704861111</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13503,10 +13163,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:38:17</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44293.77658564815</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13582,10 +13240,8 @@
           <t>4378918308</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:38:05</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44293.77644675926</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13661,10 +13317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:35:09</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44293.77440972222</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13728,10 +13382,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:34:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44293.77398148148</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -13800,10 +13452,8 @@
           <t>4378630178</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:33:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44293.77300925926</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13863,10 +13513,8 @@
           <t>4378882077</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:28:58</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44293.77011574074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13930,10 +13578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:26:08</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44293.76814814815</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14005,10 +13651,8 @@
           <t>4378853734</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:23:29</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44293.76630787037</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14072,10 +13716,8 @@
           <t>4378851113</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:21:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44293.76512731481</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14139,10 +13781,8 @@
           <t>4378090158</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:18:42</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44293.76298611111</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14218,10 +13858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:18:13</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44293.76265046297</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14289,10 +13927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:17:46</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44293.76233796297</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14360,10 +13996,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:17:24</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44293.76208333333</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14435,10 +14069,8 @@
           <t>4378804719</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:13:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44293.75969907407</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14506,10 +14138,8 @@
           <t>4378793485</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:10:37</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44293.75737268518</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14577,10 +14207,8 @@
           <t>4378782169</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:08:58</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44293.75622685185</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14656,10 +14284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:08:47</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44293.75609953704</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14727,10 +14353,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:06:03</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44293.75420138889</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14807,10 +14431,8 @@
           <t>4378770730</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:05:17</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44293.75366898148</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14882,10 +14504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:05:00</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44293.75347222222</v>
       </c>
       <c r="I199" t="n">
         <v>6</v>
@@ -14949,10 +14569,8 @@
           <t>4378762443</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:03:48</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44293.75263888889</v>
       </c>
       <c r="I200" t="n">
         <v>5</v>
@@ -15020,10 +14638,8 @@
           <t>4378630178</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:03:30</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44293.75243055556</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15091,10 +14707,8 @@
           <t>4378565021</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:03:10</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44293.75219907407</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15158,10 +14772,8 @@
           <t>4378752176</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:03:02</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44293.75210648148</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15229,10 +14841,8 @@
           <t>4378751031</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:02:23</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44293.75165509259</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15300,10 +14910,8 @@
           <t>4378748949</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:01:42</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44293.75118055556</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15379,10 +14987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-04-07 18:01:27</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44293.75100694445</v>
       </c>
       <c r="I206" t="n">
         <v>34</v>
@@ -15458,10 +15064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:57:52</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44293.74851851852</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15534,10 +15138,8 @@
           <t>4378722336</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:57:04</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44293.74796296296</v>
       </c>
       <c r="I208" t="n">
         <v>6</v>
@@ -15613,10 +15215,8 @@
           <t>4378726853</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:56:48</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44293.74777777777</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15680,10 +15280,8 @@
           <t>4378720254</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:55:43</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44293.74702546297</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15759,10 +15357,8 @@
           <t>4378707698</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:54:07</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44293.74591435185</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15838,10 +15434,8 @@
           <t>4378716857</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:53:55</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44293.74577546296</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15909,10 +15503,8 @@
           <t>4378703152</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:51:23</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44293.7440162037</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15976,10 +15568,8 @@
           <t>4378702815</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:51:10</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44293.74386574074</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16047,10 +15637,8 @@
           <t>4378136621</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:48:13</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44293.74181712963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16126,10 +15714,8 @@
           <t>4378630178</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:47:55</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44293.7416087963</v>
       </c>
       <c r="I216" t="n">
         <v>5</v>
@@ -16197,10 +15783,8 @@
           <t>4378136621</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:47:38</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44293.74141203704</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16268,10 +15852,8 @@
           <t>4378683425</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:47:36</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44293.74138888889</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16347,10 +15929,8 @@
           <t>4378676220</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:45:54</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44293.74020833334</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16414,10 +15994,8 @@
           <t>4378227558</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:41:31</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44293.73716435185</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16485,10 +16063,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:35:20</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44293.73287037037</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16560,10 +16136,8 @@
           <t>4378636680</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:34:55</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44293.73258101852</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16635,10 +16209,8 @@
           <t>4378641280</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:34:45</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44293.73246527778</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16710,10 +16282,8 @@
           <t>4378635212</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:33:45</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44293.73177083334</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16781,10 +16351,8 @@
           <t>4378630178</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:33:33</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44293.73163194444</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16852,10 +16420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:32:36</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44293.73097222222</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16928,10 +16494,8 @@
           <t>4378626095</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:30:40</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44293.72962962963</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -16995,10 +16559,8 @@
           <t>4378603807</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:28:32</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44293.72814814815</v>
       </c>
       <c r="I228" t="n">
         <v>4</v>
@@ -17070,10 +16632,8 @@
           <t>4378587061</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:23:10</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44293.7244212963</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17137,10 +16697,8 @@
           <t>4378578528</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:20:40</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44293.72268518519</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17208,10 +16766,8 @@
           <t>4378578497</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:20:39</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44293.72267361111</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17275,10 +16831,8 @@
           <t>4378577489</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:19:50</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44293.72210648148</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17342,10 +16896,8 @@
           <t>4378577154</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:19:33</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44293.72190972222</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17413,10 +16965,8 @@
           <t>4378568734</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:17:00</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44293.72013888889</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17480,10 +17030,8 @@
           <t>4378563890</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:16:59</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44293.72012731482</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
@@ -17551,10 +17099,8 @@
           <t>4378213409</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:15:43</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44293.71924768519</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17614,10 +17160,8 @@
           <t>4378561642</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:15:10</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44293.71886574074</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17689,10 +17233,8 @@
           <t>4378565021</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:13:58</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44293.71803240741</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17760,10 +17302,8 @@
           <t>4378554908</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:13:53</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44293.71797453704</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17823,10 +17363,8 @@
           <t>4378549409</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:13:21</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44293.71760416667</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17886,10 +17424,8 @@
           <t>4378547859</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:12:05</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44293.71672453704</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17957,10 +17493,8 @@
           <t>4378543071</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:11:51</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44293.7165625</v>
       </c>
       <c r="I242" t="n">
         <v>4</v>
@@ -18036,10 +17570,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:08:54</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44293.71451388889</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18111,10 +17643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:08:13</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44293.71403935185</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18186,10 +17716,8 @@
           <t>4378527761</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:07:34</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44293.71358796296</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18257,10 +17785,8 @@
           <t>4378536599</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:07:13</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44293.71334490741</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18337,10 +17863,8 @@
           <t>4378525078</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:05:20</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44293.71203703704</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18404,10 +17928,8 @@
           <t>4378510015</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:01:10</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44293.70914351852</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18479,10 +18001,8 @@
           <t>4378504378</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:01:04</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44293.70907407408</v>
       </c>
       <c r="I249" t="n">
         <v>10</v>
@@ -18550,10 +18070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:01:00</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44293.70902777778</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18621,10 +18139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:00:54</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44293.70895833334</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18684,10 +18200,8 @@
           <t>4378503375</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-04-07 17:00:14</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44293.70849537037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18755,10 +18269,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:58:58</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44293.70761574074</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18822,10 +18334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:56:38</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44293.70599537037</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18889,10 +18399,8 @@
           <t>4378482264</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:54:28</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44293.70449074074</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18968,10 +18476,8 @@
           <t>4378485302</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:53:29</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44293.70380787037</v>
       </c>
       <c r="I256" t="n">
         <v>5</v>
@@ -19047,10 +18553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:52:26</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44293.7030787037</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19118,10 +18622,8 @@
           <t>4378467857</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:50:39</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44293.70184027778</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19189,10 +18691,8 @@
           <t>4378470985</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:49:44</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44293.70120370371</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19256,10 +18756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:47:57</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44293.69996527778</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19331,10 +18829,8 @@
           <t>4377991889</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:45:51</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44293.69850694444</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19398,10 +18894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:45:22</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44293.6981712963</v>
       </c>
       <c r="I262" t="n">
         <v>11</v>
@@ -19473,10 +18967,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:42:59</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44293.6965162037</v>
       </c>
       <c r="I263" t="n">
         <v>5</v>
@@ -19548,10 +19040,8 @@
           <t>4378445897</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:40:57</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44293.69510416667</v>
       </c>
       <c r="I264" t="n">
         <v>6</v>
@@ -19619,10 +19109,8 @@
           <t>4378437046</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:40:54</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44293.69506944445</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19698,10 +19186,8 @@
           <t>4378435804</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:39:44</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44293.69425925926</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19765,10 +19251,8 @@
           <t>4378428648</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:38:44</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44293.69356481481</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19844,10 +19328,8 @@
           <t>4378432086</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:37:33</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44293.69274305556</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -19911,10 +19393,8 @@
           <t>4378426466</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:36:46</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44293.69219907407</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19978,10 +19458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:35:35</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44293.69137731481</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20057,10 +19535,8 @@
           <t>4378410457</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:31:17</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44293.6883912037</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20128,10 +19604,8 @@
           <t>4378415068</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:31:04</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44293.68824074074</v>
       </c>
       <c r="I272" t="n">
         <v>4</v>
@@ -20195,10 +19669,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:30:30</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44293.68784722222</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20266,10 +19738,8 @@
           <t>4378405710</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:30:24</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44293.68777777778</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20333,10 +19803,8 @@
           <t>4378405241</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:29:58</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44293.68747685185</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20404,10 +19872,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:25:46</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44293.68456018518</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20471,10 +19937,8 @@
           <t>4378387103</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:23:39</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44293.68309027778</v>
       </c>
       <c r="I277" t="n">
         <v>9</v>
@@ -20542,10 +20006,8 @@
           <t>4378378000</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:23:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44293.68275462963</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20609,10 +20071,8 @@
           <t>4378377437</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:22:38</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44293.68238425926</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20680,10 +20140,8 @@
           <t>4378369416</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:20:56</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44293.6812037037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20759,10 +20217,8 @@
           <t>4378373744</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:20:27</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44293.68086805556</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20830,10 +20286,8 @@
           <t>4378373331</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:20:04</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44293.68060185185</v>
       </c>
       <c r="I282" t="n">
         <v>15</v>
@@ -20909,10 +20363,8 @@
           <t>4378363677</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:19:05</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44293.67991898148</v>
       </c>
       <c r="I283" t="n">
         <v>10</v>
@@ -20988,10 +20440,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:19:04</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44293.67990740741</v>
       </c>
       <c r="I284" t="n">
         <v>10</v>
@@ -21067,10 +20517,8 @@
           <t>4378354742</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:16:30</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44293.678125</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21138,10 +20586,8 @@
           <t>4378359384</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:16:22</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44293.67803240741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21217,10 +20663,8 @@
           <t>4378341469</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:16:16</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44293.67796296296</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21292,10 +20736,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:14:53</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44293.67700231481</v>
       </c>
       <c r="I288" t="n">
         <v>5</v>
@@ -21367,10 +20809,8 @@
           <t>4378352623</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:14:29</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44293.67672453704</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21446,10 +20886,8 @@
           <t>4378348747</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:14:26</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44293.67668981481</v>
       </c>
       <c r="I290" t="n">
         <v>3</v>
@@ -21517,10 +20955,8 @@
           <t>4378352278</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:14:08</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44293.67648148148</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21592,10 +21028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:12:06</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44293.67506944444</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21666,10 +21100,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:11:35</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44293.67471064815</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21745,10 +21177,8 @@
           <t>4378341469</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:08:41</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44293.67269675926</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21824,10 +21254,8 @@
           <t>4378301329</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:08:10</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44293.67233796296</v>
       </c>
       <c r="I295" t="n">
         <v>6</v>
@@ -21903,10 +21331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:08:00</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44293.67222222222</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21970,10 +21396,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:07:00</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44293.67152777778</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22049,10 +21473,8 @@
           <t>4378324723</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:06:48</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44293.67138888889</v>
       </c>
       <c r="I298" t="n">
         <v>12</v>
@@ -22128,10 +21550,8 @@
           <t>4378324630</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:06:43</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44293.67133101852</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22191,10 +21611,8 @@
           <t>4378318057</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:04:10</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44293.66956018518</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22275,10 +21693,8 @@
           <t>4378317878</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:04:00</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44293.66944444444</v>
       </c>
       <c r="I301" t="n">
         <v>7</v>
@@ -22354,10 +21770,8 @@
           <t>4378325998</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-04-07 16:03:22</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44293.66900462963</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22433,10 +21847,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:59:18</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44293.66618055556</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22500,10 +21912,8 @@
           <t>4378301329</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:57:33</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44293.66496527778</v>
       </c>
       <c r="I304" t="n">
         <v>19</v>
@@ -22579,10 +21989,8 @@
           <t>4378299790</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:57:16</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44293.66476851852</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22646,10 +22054,8 @@
           <t>4378289545</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:55:37</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44293.66362268518</v>
       </c>
       <c r="I306" t="n">
         <v>14</v>
@@ -22721,10 +22127,8 @@
           <t>4378297842</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:55:15</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44293.66336805555</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -22800,10 +22204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:54:49</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44293.66306712963</v>
       </c>
       <c r="I308" t="n">
         <v>48</v>
@@ -22867,10 +22269,8 @@
           <t>4378287510</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:53:33</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44293.6621875</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22946,10 +22346,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:53:29</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44293.66214120371</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23021,10 +22419,8 @@
           <t>4378295343</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:52:50</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44293.66168981481</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23096,10 +22492,8 @@
           <t>4377997221</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:52:23</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44293.66137731481</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23175,10 +22569,8 @@
           <t>4378284478</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:51:51</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44293.66100694444</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23242,10 +22634,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:51:24</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44293.66069444444</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23309,10 +22699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:51:17</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44293.66061342593</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23388,10 +22776,8 @@
           <t>4378263930</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:46:16</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44293.65712962963</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23455,10 +22841,8 @@
           <t>4378263806</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:46:08</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44293.65703703704</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23534,10 +22918,8 @@
           <t>4378259930</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:45:47</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44293.65679398148</v>
       </c>
       <c r="I318" t="n">
         <v>5</v>
@@ -23613,10 +22995,8 @@
           <t>4378262821</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:45:08</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44293.65634259259</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23684,10 +23064,8 @@
           <t>4378262586</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:44:55</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44293.65619212963</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23759,10 +23137,8 @@
           <t>4378262573</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:44:54</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44293.65618055555</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23838,10 +23214,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:44:17</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44293.65575231481</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23905,10 +23279,8 @@
           <t>4378257029</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:42:48</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44293.65472222222</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23972,10 +23344,8 @@
           <t>4378256883</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:42:38</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44293.65460648148</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24043,10 +23413,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:41:36</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44293.65388888889</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24114,10 +23482,8 @@
           <t>4378243937</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:39:41</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44293.65255787037</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24177,10 +23543,8 @@
           <t>4378242080</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:37:46</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44293.65122685185</v>
       </c>
       <c r="I327" t="n">
         <v>4</v>
@@ -24256,10 +23620,8 @@
           <t>4378245484</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:37:37</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44293.65112268519</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24335,10 +23697,8 @@
           <t>4378239066</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:36:12</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44293.65013888889</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24414,10 +23774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:35:47</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44293.64984953704</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24489,10 +23847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:34:47</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44293.64915509259</v>
       </c>
       <c r="I331" t="n">
         <v>4</v>
@@ -24564,10 +23920,8 @@
           <t>4378227970</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:33:36</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44293.64833333333</v>
       </c>
       <c r="I332" t="n">
         <v>31</v>
@@ -24635,10 +23989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:33:36</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44293.64833333333</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24707,10 +24059,8 @@
           <t>4378227558</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:33:12</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44293.64805555555</v>
       </c>
       <c r="I334" t="n">
         <v>8</v>
@@ -24786,10 +24136,8 @@
           <t>4378230882</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:32:59</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44293.64790509259</v>
       </c>
       <c r="I335" t="n">
         <v>40</v>
@@ -24857,10 +24205,8 @@
           <t>4378224012</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:31:08</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44293.64662037037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24928,10 +24274,8 @@
           <t>4378214890</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:30:33</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44293.64621527777</v>
       </c>
       <c r="I337" t="n">
         <v>4</v>
@@ -25008,10 +24352,8 @@
           <t>4378223136</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:30:17</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44293.64603009259</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -25087,10 +24429,8 @@
           <t>4378213409</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:29:04</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44293.64518518518</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25158,10 +24498,8 @@
           <t>4378212955</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:28:36</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44293.64486111111</v>
       </c>
       <c r="I340" t="n">
         <v>5</v>
@@ -25233,10 +24571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:26:44</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44293.64356481482</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25312,10 +24648,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:26:44</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44293.64356481482</v>
       </c>
       <c r="I342" t="n">
         <v>15</v>
@@ -25397,10 +24731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:25:46</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44293.64289351852</v>
       </c>
       <c r="I343" t="n">
         <v>56</v>
@@ -25468,10 +24800,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:23:26</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44293.64127314815</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25543,10 +24873,8 @@
           <t>4378205606</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:22:50</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44293.64085648148</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25618,10 +24946,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:22:41</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44293.64075231482</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25693,10 +25019,8 @@
           <t>4378166119</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:11:09</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44293.63274305555</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25772,10 +25096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:08:58</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44293.63122685185</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25843,10 +25165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:05:52</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44293.62907407407</v>
       </c>
       <c r="I349" t="n">
         <v>2</v>
@@ -25922,10 +25242,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:03:41</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44293.62755787037</v>
       </c>
       <c r="I350" t="n">
         <v>6</v>
@@ -25993,10 +25311,8 @@
           <t>4378145303</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:01:34</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44293.62608796296</v>
       </c>
       <c r="I351" t="n">
         <v>5</v>
@@ -26068,10 +25384,8 @@
           <t>4378136621</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:00:56</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44293.62564814815</v>
       </c>
       <c r="I352" t="n">
         <v>12</v>
@@ -26140,10 +25454,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:00:46</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44293.62553240741</v>
       </c>
       <c r="I353" t="n">
         <v>6</v>
@@ -26207,10 +25519,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-04-07 15:00:25</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44293.62528935185</v>
       </c>
       <c r="I354" t="n">
         <v>57</v>
@@ -26274,10 +25584,8 @@
           <t>4378127963</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:59:00</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44293.62430555555</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26345,10 +25653,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:58:50</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44293.62418981481</v>
       </c>
       <c r="I356" t="n">
         <v>76</v>
@@ -26420,10 +25726,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:58:42</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44293.62409722222</v>
       </c>
       <c r="I357" t="n">
         <v>8</v>
@@ -26487,10 +25791,8 @@
           <t>4378132522</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:58:36</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44293.62402777778</v>
       </c>
       <c r="I358" t="n">
         <v>4</v>
@@ -26559,10 +25861,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:58:17</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44293.62380787037</v>
       </c>
       <c r="I359" t="n">
         <v>3</v>
@@ -26626,10 +25926,8 @@
           <t>4378114500</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:55:18</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44293.62173611111</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26702,10 +26000,8 @@
           <t>4378121330</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:55:09</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44293.62163194444</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26778,10 +26074,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:54:07</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44293.62091435185</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -26849,10 +26143,8 @@
           <t>4378113130</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:53:50</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44293.6207175926</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26929,10 +26221,8 @@
           <t>4378117725</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:53:19</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44293.6203587963</v>
       </c>
       <c r="I364" t="n">
         <v>8</v>
@@ -26992,10 +26282,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:51:52</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44293.61935185185</v>
       </c>
       <c r="I365" t="n">
         <v>10</v>
@@ -27063,10 +26351,8 @@
           <t>4378106873</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:50:24</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44293.61833333333</v>
       </c>
       <c r="I366" t="n">
         <v>5</v>
@@ -27138,10 +26424,8 @@
           <t>4378099015</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:49:22</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44293.61761574074</v>
       </c>
       <c r="I367" t="n">
         <v>87</v>
@@ -27205,10 +26489,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:49:10</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44293.61747685185</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -27280,10 +26562,8 @@
           <t>4378092800</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:46:03</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44293.6153125</v>
       </c>
       <c r="I369" t="n">
         <v>15</v>
@@ -27365,10 +26645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:45:45</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44293.61510416667</v>
       </c>
       <c r="I370" t="n">
         <v>772</v>
@@ -27428,10 +26706,8 @@
           <t>4378095372</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:45:30</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44293.61493055556</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27495,10 +26771,8 @@
           <t>4378084722</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:44:47</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44293.61443287037</v>
       </c>
       <c r="I372" t="n">
         <v>7</v>
@@ -27562,10 +26836,8 @@
           <t>4378090880</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:44:01</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44293.61390046297</v>
       </c>
       <c r="I373" t="n">
         <v>39</v>
@@ -27637,10 +26909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:43:16</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44293.61337962963</v>
       </c>
       <c r="I374" t="n">
         <v>366</v>
@@ -27712,10 +26982,8 @@
           <t>4378090158</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:43:15</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44293.61336805556</v>
       </c>
       <c r="I375" t="n">
         <v>32</v>
@@ -27791,10 +27059,8 @@
           <t>4378088054</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:43:11</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44293.61332175926</v>
       </c>
       <c r="I376" t="n">
         <v>29</v>
@@ -27862,10 +27128,8 @@
           <t>4378057448</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:41:35</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44293.61221064815</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -27929,10 +27193,8 @@
           <t>4378077957</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:40:52</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44293.61171296296</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28004,10 +27266,8 @@
           <t>4378077677</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:40:35</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44293.6115162037</v>
       </c>
       <c r="I379" t="n">
         <v>8</v>
@@ -28079,10 +27339,8 @@
           <t>4378085307</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:40:16</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44293.61129629629</v>
       </c>
       <c r="I380" t="n">
         <v>238</v>
@@ -28146,10 +27404,8 @@
           <t>4378080032</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:39:49</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44293.61098379629</v>
       </c>
       <c r="I381" t="n">
         <v>19</v>
@@ -28225,10 +27481,8 @@
           <t>4377997221</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:39:36</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44293.61083333333</v>
       </c>
       <c r="I382" t="n">
         <v>19</v>
@@ -28300,10 +27554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:38:26</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44293.61002314815</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28375,10 +27627,8 @@
           <t>4378072003</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:36:53</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44293.60894675926</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28442,10 +27692,8 @@
           <t>4378063263</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:35:52</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44293.60824074074</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28517,10 +27765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:35:05</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44293.60769675926</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28592,10 +27838,8 @@
           <t>4378054500</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:33:58</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44293.6069212963</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28663,10 +27907,8 @@
           <t>4378058449</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:33:12</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44293.60638888889</v>
       </c>
       <c r="I388" t="n">
         <v>6</v>
@@ -28734,10 +27976,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:32:39</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44293.60600694444</v>
       </c>
       <c r="I389" t="n">
         <v>11</v>
@@ -28805,10 +28045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:32:36</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44293.60597222222</v>
       </c>
       <c r="I390" t="n">
         <v>28</v>
@@ -28880,10 +28118,8 @@
           <t>4378057485</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:32:12</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44293.60569444444</v>
       </c>
       <c r="I391" t="n">
         <v>79</v>
@@ -28959,10 +28195,8 @@
           <t>4378057448</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:32:10</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44293.6056712963</v>
       </c>
       <c r="I392" t="n">
         <v>3</v>
@@ -29034,10 +28268,8 @@
           <t>4377979762</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:31:33</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44293.60524305556</v>
       </c>
       <c r="I393" t="n">
         <v>2</v>
@@ -29113,10 +28345,8 @@
           <t>4378056482</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:31:11</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44293.60498842593</v>
       </c>
       <c r="I394" t="n">
         <v>47</v>
@@ -29188,10 +28418,8 @@
           <t>4377979762</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:31:03</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44293.60489583333</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29255,10 +28483,8 @@
           <t>4378048300</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:30:38</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44293.60460648148</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29330,10 +28556,8 @@
           <t>4378013865</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:29:23</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44293.60373842593</v>
       </c>
       <c r="I397" t="n">
         <v>10</v>
@@ -29409,10 +28633,8 @@
           <t>4378033496</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:27:46</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44293.60261574074</v>
       </c>
       <c r="I398" t="n">
         <v>8</v>
@@ -29480,10 +28702,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:26:59</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44293.60207175926</v>
       </c>
       <c r="I399" t="n">
         <v>9</v>
@@ -29559,10 +28779,8 @@
           <t>4378042068</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:26:45</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44293.60190972222</v>
       </c>
       <c r="I400" t="n">
         <v>6</v>
@@ -29638,10 +28856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:26:43</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44293.60188657408</v>
       </c>
       <c r="I401" t="n">
         <v>49</v>
@@ -29705,10 +28921,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:26:07</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44293.60146990741</v>
       </c>
       <c r="I402" t="n">
         <v>6</v>
@@ -29785,10 +28999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:25:56</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44293.60134259259</v>
       </c>
       <c r="I403" t="n">
         <v>283</v>
@@ -29860,10 +29072,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:25:46</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44293.60122685185</v>
       </c>
       <c r="I404" t="n">
         <v>9</v>
@@ -29931,10 +29141,8 @@
           <t>4378033496</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:25:37</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44293.60112268518</v>
       </c>
       <c r="I405" t="n">
         <v>21</v>
@@ -30006,10 +29214,8 @@
           <t>4377984763</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:25:33</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44293.60107638889</v>
       </c>
       <c r="I406" t="n">
         <v>10</v>
@@ -30081,10 +29287,8 @@
           <t>4378040587</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:25:14</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44293.60085648148</v>
       </c>
       <c r="I407" t="n">
         <v>15</v>
@@ -30160,10 +29364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:23:53</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44293.59991898148</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30235,10 +29437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:23:44</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44293.59981481481</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30310,10 +29510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:23:35</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44293.59971064814</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30389,10 +29587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:23:34</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44293.59969907408</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30464,10 +29660,8 @@
           <t>4378031463</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:23:29</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44293.59964120371</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -30543,10 +29737,8 @@
           <t>4378023853</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:22:47</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44293.59915509259</v>
       </c>
       <c r="I413" t="n">
         <v>8</v>
@@ -30606,10 +29798,8 @@
           <t>4378030141</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:22:03</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44293.59864583334</v>
       </c>
       <c r="I414" t="n">
         <v>6</v>
@@ -30685,10 +29875,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:21:44</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44293.59842592593</v>
       </c>
       <c r="I415" t="n">
         <v>36</v>
@@ -30764,10 +29952,8 @@
           <t>4378013865</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:20:34</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44293.59761574074</v>
       </c>
       <c r="I416" t="n">
         <v>5</v>
@@ -30839,10 +30025,8 @@
           <t>4378017956</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:19:46</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44293.59706018519</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30914,10 +30098,8 @@
           <t>4378017411</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:19:13</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44293.59667824074</v>
       </c>
       <c r="I418" t="n">
         <v>12</v>
@@ -30989,10 +30171,8 @@
           <t>4378013865</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:18:15</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44293.59600694444</v>
       </c>
       <c r="I419" t="n">
         <v>10</v>
@@ -31064,10 +30244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:16:43</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44293.59494212963</v>
       </c>
       <c r="I420" t="n">
         <v>1930</v>
@@ -31135,10 +30313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:16:11</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44293.59457175926</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31202,10 +30378,8 @@
           <t>4377997221</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:15:50</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44293.5943287037</v>
       </c>
       <c r="I422" t="n">
         <v>17</v>
@@ -31277,10 +30451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:15:25</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44293.59403935185</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31352,10 +30524,8 @@
           <t>4377999772</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:14:01</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44293.59306712963</v>
       </c>
       <c r="I424" t="n">
         <v>8</v>
@@ -31423,10 +30593,8 @@
           <t>4378001794</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:13:13</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44293.59251157408</v>
       </c>
       <c r="I425" t="n">
         <v>2</v>
@@ -31494,10 +30662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:13:02</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44293.59238425926</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31569,10 +30735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:13:00</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44293.59236111111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31636,10 +30800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:12:56</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44293.59231481481</v>
       </c>
       <c r="I428" t="n">
         <v>165</v>
@@ -31711,10 +30873,8 @@
           <t>4378001304</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:12:43</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44293.59216435185</v>
       </c>
       <c r="I429" t="n">
         <v>5</v>
@@ -31792,10 +30952,8 @@
           <t>4378001150</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:12:34</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44293.59206018518</v>
       </c>
       <c r="I430" t="n">
         <v>28</v>
@@ -31867,10 +31025,8 @@
           <t>4377997221</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:11:20</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44293.59120370371</v>
       </c>
       <c r="I431" t="n">
         <v>64</v>
@@ -31942,10 +31098,8 @@
           <t>4377969075</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:11:19</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44293.59119212963</v>
       </c>
       <c r="I432" t="n">
         <v>13</v>
@@ -32017,10 +31171,8 @@
           <t>4377996539</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:10:37</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44293.59070601852</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32092,10 +31244,8 @@
           <t>4377991889</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:10:18</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44293.59048611111</v>
       </c>
       <c r="I434" t="n">
         <v>9</v>
@@ -32163,10 +31313,8 @@
           <t>4377984763</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:08:49</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44293.58945601852</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32242,10 +31390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:08:10</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44293.58900462963</v>
       </c>
       <c r="I436" t="n">
         <v>15</v>
@@ -32321,10 +31467,8 @@
           <t>4377987018</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:08:10</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44293.58900462963</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32400,10 +31544,8 @@
           <t>4377979762</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:08:06</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44293.58895833333</v>
       </c>
       <c r="I438" t="n">
         <v>93</v>
@@ -32467,10 +31609,8 @@
           <t>4377979462</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:07:47</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44293.58873842593</v>
       </c>
       <c r="I439" t="n">
         <v>21</v>
@@ -32534,10 +31674,8 @@
           <t>4377986535</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:07:42</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44293.58868055556</v>
       </c>
       <c r="I440" t="n">
         <v>10</v>
@@ -32606,10 +31744,8 @@
           <t>4377979151</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:07:28</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44293.58851851852</v>
       </c>
       <c r="I441" t="n">
         <v>16</v>
@@ -32681,10 +31817,8 @@
           <t>4377969075</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:07:05</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44293.58825231482</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32760,10 +31894,8 @@
           <t>4377985180</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:06:21</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44293.58774305556</v>
       </c>
       <c r="I443" t="n">
         <v>5</v>
@@ -32839,10 +31971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:52</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44293.58740740741</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32918,10 +32048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:45</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44293.58732638889</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32989,10 +32117,8 @@
           <t>4377981688</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:40</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44293.58726851852</v>
       </c>
       <c r="I446" t="n">
         <v>15</v>
@@ -33064,10 +32190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:40</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44293.58726851852</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33143,10 +32267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:29</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44293.5871412037</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33222,10 +32344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:29</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44293.5871412037</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33302,10 +32422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:24</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44293.58708333333</v>
       </c>
       <c r="I450" t="n">
         <v>1592</v>
@@ -33369,10 +32487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:05:03</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44293.58684027778</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33444,10 +32560,8 @@
           <t>4377973802</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:04:54</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44293.58673611111</v>
       </c>
       <c r="I452" t="n">
         <v>49</v>
@@ -33519,10 +32633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:04:53</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44293.58672453704</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33582,10 +32694,8 @@
           <t>4377973662</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:04:45</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44293.58663194445</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33661,10 +32771,8 @@
           <t>4377964371</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:03:45</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44293.5859375</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33732,10 +32840,8 @@
           <t>4377969632</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:03:36</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44293.58583333333</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33803,10 +32909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:03:34</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44293.58581018518</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33874,10 +32978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:03:33</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44293.58579861111</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33945,10 +33047,8 @@
           <t>4377964371</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:03:28</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44293.58574074074</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -34016,10 +33116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:03:19</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44293.58563657408</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34083,10 +33181,8 @@
           <t>4377969075</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:03:04</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44293.58546296296</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -34158,10 +33254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:02:58</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44293.58539351852</v>
       </c>
       <c r="I462" t="n">
         <v>10</v>
@@ -34229,10 +33323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:02:51</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44293.5853125</v>
       </c>
       <c r="I463" t="n">
         <v>341</v>
@@ -34302,10 +33394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:02:44</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44293.58523148148</v>
       </c>
       <c r="I464" t="n">
         <v>879</v>
@@ -34377,10 +33467,8 @@
           <t>4377964371</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:02:38</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44293.58516203704</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34462,10 +33550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:02:20</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44293.58495370371</v>
       </c>
       <c r="I466" t="n">
         <v>411</v>
@@ -34537,10 +33623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:02:20</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44293.58495370371</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34604,10 +33688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:02:15</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44293.58489583333</v>
       </c>
       <c r="I468" t="n">
         <v>7</v>
@@ -34671,10 +33753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:33</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44293.58440972222</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34746,10 +33826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:16</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44293.58421296296</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34817,10 +33895,8 @@
           <t>4377967335</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:14</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44293.58418981481</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34888,10 +33964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:11</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44293.58415509259</v>
       </c>
       <c r="I472" t="n">
         <v>60</v>
@@ -34964,10 +34038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:07</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44293.5841087963</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35035,10 +34107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:05</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44293.58408564814</v>
       </c>
       <c r="I474" t="n">
         <v>103</v>
@@ -35110,10 +34180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:02</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44293.58405092593</v>
       </c>
       <c r="I475" t="n">
         <v>360</v>
@@ -35181,10 +34249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:01:02</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44293.58405092593</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35248,10 +34314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:00:50</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44293.58391203704</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35323,10 +34387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:00:47</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44293.58387731481</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35386,10 +34448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:00:45</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44293.58385416667</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
